--- a/public/tpl/dbtemplate.xlsx
+++ b/public/tpl/dbtemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12975" tabRatio="766"/>
+    <workbookView windowWidth="24000" windowHeight="9870" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="9">
   <si>
     <t>表名注释</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>datetime</t>
   </si>
   <si>
     <r>
@@ -118,12 +115,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -168,13 +164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -191,23 +180,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,77 +286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,19 +308,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,37 +410,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,13 +458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,103 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,6 +526,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -550,21 +561,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,142 +604,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -753,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,16 +762,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,60 +1154,33 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    <row r="3" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="28" customHeight="true" spans="1:5">
+    </row>
+    <row r="4" ht="28" customHeight="true" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="28" customHeight="true" spans="1:5">
+    </row>
+    <row r="5" ht="28" customHeight="true" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:B5 C5:XFD5">
       <formula1>"text,datetime,int,long,smallint,float,double"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1232,81 +1195,52 @@
   <sheetPr>
     <tabColor theme="8" tint="0.6"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="7.87333333333333" style="1" customWidth="true"/>
     <col min="2" max="2" width="23.2533333333333" style="1" customWidth="true"/>
-    <col min="3" max="3" width="42.6266666666667" style="1" customWidth="true"/>
-    <col min="4" max="5" width="15.7533333333333" style="1" customWidth="true"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="10" width="11.2533333333333" style="1" customWidth="true"/>
-    <col min="11" max="16382" width="9" style="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="7" width="11.2533333333333" style="1" customWidth="true"/>
+    <col min="8" max="16379" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56" customHeight="true" spans="2:5">
+    <row r="1" ht="56" customHeight="true" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="240" customHeight="true" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="true" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" ht="35" customHeight="true" spans="2:2">
-      <c r="B4" s="6"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" ht="35" customHeight="true" spans="2:2">
-      <c r="B5" s="6"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" ht="35" customHeight="true" spans="2:2">
-      <c r="B6" s="6"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" ht="35" customHeight="true" spans="2:2">
-      <c r="B7" s="6"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" ht="35" customHeight="true" spans="2:2">
-      <c r="B8" s="6"/>
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1356,60 +1290,33 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    <row r="3" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    </row>
+    <row r="4" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    </row>
+    <row r="5" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:B5 C5:XFD5">
       <formula1>"text,datetime,int,long,smallint,float,double"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1426,88 +1333,77 @@
   <dimension ref="A1:XFD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="7.87333333333333" style="1" customWidth="true"/>
     <col min="2" max="2" width="23.2533333333333" style="1" customWidth="true"/>
-    <col min="3" max="3" width="42.6266666666667" style="1" customWidth="true"/>
-    <col min="4" max="5" width="15.7533333333333" style="1" customWidth="true"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="10" width="11.2533333333333" style="1" customWidth="true"/>
-    <col min="11" max="16382" width="9" style="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="7" width="11.2533333333333" style="1" customWidth="true"/>
+    <col min="8" max="16379" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="56" customHeight="true" spans="2:16384">
       <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="XEZ1"/>
+      <c r="XFA1"/>
+      <c r="XFB1"/>
       <c r="XFC1"/>
       <c r="XFD1"/>
     </row>
-    <row r="2" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    <row r="2" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="240" customHeight="true" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="true" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="XEZ4"/>
+      <c r="XFA4"/>
+      <c r="XFB4"/>
       <c r="XFC4"/>
       <c r="XFD4"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="XEZ5"/>
+      <c r="XFA5"/>
+      <c r="XFB5"/>
       <c r="XFC5"/>
       <c r="XFD5"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="XEZ6"/>
+      <c r="XFA6"/>
+      <c r="XFB6"/>
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="XEZ7"/>
+      <c r="XFA7"/>
+      <c r="XFB7"/>
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
     <row r="8" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="XEZ8"/>
+      <c r="XFA8"/>
+      <c r="XFB8"/>
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
@@ -1558,60 +1454,33 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    <row r="3" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    </row>
+    <row r="4" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    </row>
+    <row r="5" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:B5 C5:XFD5">
       <formula1>"text,datetime,int,long,smallint,float,double"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1635,81 +1504,70 @@
   <cols>
     <col min="1" max="1" width="7.87333333333333" style="1" customWidth="true"/>
     <col min="2" max="2" width="23.2533333333333" style="1" customWidth="true"/>
-    <col min="3" max="3" width="42.6266666666667" style="1" customWidth="true"/>
-    <col min="4" max="5" width="15.7533333333333" style="1" customWidth="true"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="10" width="11.2533333333333" style="1" customWidth="true"/>
-    <col min="11" max="16382" width="9" style="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="7" width="11.2533333333333" style="1" customWidth="true"/>
+    <col min="8" max="16379" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="56" customHeight="true" spans="2:16384">
       <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="XEZ1"/>
+      <c r="XFA1"/>
+      <c r="XFB1"/>
       <c r="XFC1"/>
       <c r="XFD1"/>
     </row>
-    <row r="2" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    <row r="2" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="240" customHeight="true" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="true" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="XEZ4"/>
+      <c r="XFA4"/>
+      <c r="XFB4"/>
       <c r="XFC4"/>
       <c r="XFD4"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="XEZ5"/>
+      <c r="XFA5"/>
+      <c r="XFB5"/>
       <c r="XFC5"/>
       <c r="XFD5"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="XEZ6"/>
+      <c r="XFA6"/>
+      <c r="XFB6"/>
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="XEZ7"/>
+      <c r="XFA7"/>
+      <c r="XFB7"/>
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
     <row r="8" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="XEZ8"/>
+      <c r="XFA8"/>
+      <c r="XFB8"/>
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
@@ -1760,60 +1618,33 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    <row r="3" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    </row>
+    <row r="4" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    </row>
+    <row r="5" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:B5 C5:XFD5">
       <formula1>"text,datetime,int,long,smallint,float,double"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1837,81 +1668,70 @@
   <cols>
     <col min="1" max="1" width="7.87333333333333" style="1" customWidth="true"/>
     <col min="2" max="2" width="23.2533333333333" style="1" customWidth="true"/>
-    <col min="3" max="3" width="42.6266666666667" style="1" customWidth="true"/>
-    <col min="4" max="5" width="15.7533333333333" style="1" customWidth="true"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="10" width="11.2533333333333" style="1" customWidth="true"/>
-    <col min="11" max="16382" width="9" style="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="7" width="11.2533333333333" style="1" customWidth="true"/>
+    <col min="8" max="16379" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="56" customHeight="true" spans="2:16384">
       <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="XEZ1"/>
+      <c r="XFA1"/>
+      <c r="XFB1"/>
       <c r="XFC1"/>
       <c r="XFD1"/>
     </row>
-    <row r="2" s="1" customFormat="true" ht="28" customHeight="true" spans="1:5">
+    <row r="2" s="1" customFormat="true" ht="28" customHeight="true" spans="1:2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="240" customHeight="true" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="true" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="XEZ4"/>
+      <c r="XFA4"/>
+      <c r="XFB4"/>
       <c r="XFC4"/>
       <c r="XFD4"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="XEZ5"/>
+      <c r="XFA5"/>
+      <c r="XFB5"/>
       <c r="XFC5"/>
       <c r="XFD5"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="XEZ6"/>
+      <c r="XFA6"/>
+      <c r="XFB6"/>
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="XEZ7"/>
+      <c r="XFA7"/>
+      <c r="XFB7"/>
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
     <row r="8" s="1" customFormat="true" ht="35" customHeight="true" spans="2:16384">
-      <c r="B8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="XEZ8"/>
+      <c r="XFA8"/>
+      <c r="XFB8"/>
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
